--- a/Code/Results/Cases/Case_3_106/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_106/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.56881030512842</v>
+        <v>14.80612595998577</v>
       </c>
       <c r="C2">
-        <v>6.554013223040757</v>
+        <v>5.688914384200675</v>
       </c>
       <c r="D2">
-        <v>4.516647174539715</v>
+        <v>7.433330301160994</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.73325617207269</v>
+        <v>41.07355706935063</v>
       </c>
       <c r="G2">
-        <v>34.78559626401177</v>
+        <v>48.38296573053749</v>
       </c>
       <c r="H2">
-        <v>12.07913934505707</v>
+        <v>19.28609938388824</v>
       </c>
       <c r="I2">
-        <v>19.55526675076138</v>
+        <v>30.42795352077218</v>
       </c>
       <c r="J2">
-        <v>6.172798623720849</v>
+        <v>10.52040685865705</v>
       </c>
       <c r="K2">
-        <v>10.88913740819599</v>
+        <v>12.20453708993182</v>
       </c>
       <c r="L2">
-        <v>7.051871614296223</v>
+        <v>11.8460302092484</v>
       </c>
       <c r="M2">
-        <v>10.58562904761439</v>
+        <v>16.43345541587372</v>
       </c>
       <c r="N2">
-        <v>14.59146194984065</v>
+        <v>22.46450857345616</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.79745446336026</v>
+        <v>14.65312028654114</v>
       </c>
       <c r="C3">
-        <v>6.251488206702101</v>
+        <v>5.571236714660224</v>
       </c>
       <c r="D3">
-        <v>4.405537950960052</v>
+        <v>7.428254365287355</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.52106045774309</v>
+        <v>41.14281567594985</v>
       </c>
       <c r="G3">
-        <v>34.41837368958619</v>
+        <v>48.45394970695931</v>
       </c>
       <c r="H3">
-        <v>12.11078856841267</v>
+        <v>19.33232995972031</v>
       </c>
       <c r="I3">
-        <v>19.62073970179096</v>
+        <v>30.5078490732858</v>
       </c>
       <c r="J3">
-        <v>6.212771039870684</v>
+        <v>10.53636907237344</v>
       </c>
       <c r="K3">
-        <v>10.16926258744367</v>
+        <v>12.09539462162928</v>
       </c>
       <c r="L3">
-        <v>6.984640180524095</v>
+        <v>11.85727002920242</v>
       </c>
       <c r="M3">
-        <v>10.30712162842234</v>
+        <v>16.42075543751854</v>
       </c>
       <c r="N3">
-        <v>14.79807444124029</v>
+        <v>22.52615590170458</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.30468101361473</v>
+        <v>14.56138822428877</v>
       </c>
       <c r="C4">
-        <v>6.058248657865662</v>
+        <v>5.496677674401181</v>
       </c>
       <c r="D4">
-        <v>4.337241639414644</v>
+        <v>7.425949518872491</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.40867206725399</v>
+        <v>41.19284837216055</v>
       </c>
       <c r="G4">
-        <v>34.21909583642823</v>
+        <v>48.50812593215856</v>
       </c>
       <c r="H4">
-        <v>12.13664762756372</v>
+        <v>19.36337936735459</v>
       </c>
       <c r="I4">
-        <v>19.67239182847932</v>
+        <v>30.56150165350656</v>
       </c>
       <c r="J4">
-        <v>6.238284448305444</v>
+        <v>10.54672707243143</v>
       </c>
       <c r="K4">
-        <v>9.772812487480877</v>
+        <v>12.0302876638906</v>
       </c>
       <c r="L4">
-        <v>6.945685266833782</v>
+        <v>11.86551545490169</v>
       </c>
       <c r="M4">
-        <v>10.13658952701078</v>
+        <v>16.4152507495921</v>
       </c>
       <c r="N4">
-        <v>14.92801097509845</v>
+        <v>22.56581841370652</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.09924357672429</v>
+        <v>14.52460358655552</v>
       </c>
       <c r="C5">
-        <v>5.977660373091799</v>
+        <v>5.46573482353373</v>
       </c>
       <c r="D5">
-        <v>4.309427866148632</v>
+        <v>7.425215609953161</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.36728463308913</v>
+        <v>41.21512347449497</v>
       </c>
       <c r="G5">
-        <v>34.14434952472967</v>
+        <v>48.53286243492127</v>
       </c>
       <c r="H5">
-        <v>12.14875237004938</v>
+        <v>19.37670212345568</v>
       </c>
       <c r="I5">
-        <v>19.69622473977152</v>
+        <v>30.58452095882555</v>
       </c>
       <c r="J5">
-        <v>6.248927494561432</v>
+        <v>10.55108852718973</v>
       </c>
       <c r="K5">
-        <v>9.615648453812462</v>
+        <v>12.00426205444331</v>
       </c>
       <c r="L5">
-        <v>6.93040022608905</v>
+        <v>11.86921414409781</v>
       </c>
       <c r="M5">
-        <v>10.06730792195624</v>
+        <v>16.41358710288995</v>
       </c>
       <c r="N5">
-        <v>14.98175341661562</v>
+        <v>22.58243779254768</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.064857659416</v>
+        <v>14.51853273052283</v>
       </c>
       <c r="C6">
-        <v>5.96416891123323</v>
+        <v>5.460563606057653</v>
       </c>
       <c r="D6">
-        <v>4.304811557592033</v>
+        <v>7.425106180375438</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.36067596779102</v>
+        <v>41.21893612023024</v>
       </c>
       <c r="G6">
-        <v>34.13232416463847</v>
+        <v>48.53713038788936</v>
       </c>
       <c r="H6">
-        <v>12.15085558387917</v>
+        <v>19.37895481736408</v>
       </c>
       <c r="I6">
-        <v>19.70034759798869</v>
+        <v>30.58841307188818</v>
       </c>
       <c r="J6">
-        <v>6.250709692231224</v>
+        <v>10.55182123987783</v>
       </c>
       <c r="K6">
-        <v>9.589356237100949</v>
+        <v>11.99997183904174</v>
       </c>
       <c r="L6">
-        <v>6.92789787155582</v>
+        <v>11.86984877722163</v>
       </c>
       <c r="M6">
-        <v>10.05581932322104</v>
+        <v>16.41334593998296</v>
       </c>
       <c r="N6">
-        <v>14.99072569788793</v>
+        <v>22.58522504081321</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.30192887177863</v>
+        <v>14.56088966462267</v>
       </c>
       <c r="C7">
-        <v>6.05716921129804</v>
+        <v>5.496262606111887</v>
       </c>
       <c r="D7">
-        <v>4.336866413135508</v>
+        <v>7.425938788183983</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.40809616290046</v>
+        <v>41.19314114637421</v>
       </c>
       <c r="G7">
-        <v>34.21806180037905</v>
+        <v>48.50844877617851</v>
       </c>
       <c r="H7">
-        <v>12.13680459563244</v>
+        <v>19.36355633034744</v>
       </c>
       <c r="I7">
-        <v>19.67270209826555</v>
+        <v>30.56180742207055</v>
       </c>
       <c r="J7">
-        <v>6.238426984753458</v>
+        <v>10.5467853231957</v>
       </c>
       <c r="K7">
-        <v>9.770706127967971</v>
+        <v>12.02993459032735</v>
       </c>
       <c r="L7">
-        <v>6.945476735534369</v>
+        <v>11.86556396490223</v>
       </c>
       <c r="M7">
-        <v>10.1356541890872</v>
+        <v>16.41522596278715</v>
       </c>
       <c r="N7">
-        <v>14.92873253214771</v>
+        <v>22.56604069813334</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.30692411976409</v>
+        <v>14.75293451002885</v>
       </c>
       <c r="C8">
-        <v>6.451278672297578</v>
+        <v>5.648829082529201</v>
       </c>
       <c r="D8">
-        <v>4.478373576657766</v>
+        <v>7.431412369401966</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.65632438370359</v>
+        <v>41.09587843568688</v>
       </c>
       <c r="G8">
-        <v>34.65346917454114</v>
+        <v>48.4052404256262</v>
       </c>
       <c r="H8">
-        <v>12.08868839574974</v>
+        <v>19.30148689674156</v>
       </c>
       <c r="I8">
-        <v>19.57540698623048</v>
+        <v>30.45454732343796</v>
       </c>
       <c r="J8">
-        <v>6.186381071047192</v>
+        <v>10.52579523077006</v>
       </c>
       <c r="K8">
-        <v>10.64616652014286</v>
+        <v>12.16652513679476</v>
       </c>
       <c r="L8">
-        <v>7.028210631133438</v>
+        <v>11.84962710641561</v>
       </c>
       <c r="M8">
-        <v>10.48955608066283</v>
+        <v>16.42860234861351</v>
       </c>
       <c r="N8">
-        <v>14.66207516101216</v>
+        <v>22.48538949094934</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.11933410175806</v>
+        <v>15.14528925234744</v>
       </c>
       <c r="C9">
-        <v>7.163359882922592</v>
+        <v>5.928906823343101</v>
       </c>
       <c r="D9">
-        <v>4.753763741515357</v>
+        <v>7.448532459720206</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.28875182532489</v>
+        <v>40.96477142307958</v>
       </c>
       <c r="G9">
-        <v>35.72005044419145</v>
+        <v>48.28704495053251</v>
       </c>
       <c r="H9">
-        <v>12.04757620953737</v>
+        <v>19.20090029831428</v>
       </c>
       <c r="I9">
-        <v>19.47986565872685</v>
+        <v>30.28069624075923</v>
       </c>
       <c r="J9">
-        <v>6.091916099681294</v>
+        <v>10.48903665489589</v>
       </c>
       <c r="K9">
-        <v>12.30339601800498</v>
+        <v>12.44830621231038</v>
       </c>
       <c r="L9">
-        <v>7.208662547378831</v>
+        <v>11.82901210738993</v>
       </c>
       <c r="M9">
-        <v>11.18345408449479</v>
+        <v>16.47289088492826</v>
       </c>
       <c r="N9">
-        <v>14.16267281380892</v>
+        <v>22.34154296837627</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.34810621770656</v>
+        <v>15.44068391235287</v>
       </c>
       <c r="C10">
-        <v>7.648261105246918</v>
+        <v>6.122021859309949</v>
       </c>
       <c r="D10">
-        <v>4.952930914980602</v>
+        <v>7.464927308309999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.84663469985272</v>
+        <v>40.90485466967257</v>
       </c>
       <c r="G10">
-        <v>36.63901661107946</v>
+        <v>48.25170116573216</v>
       </c>
       <c r="H10">
-        <v>12.05301229404633</v>
+        <v>19.13987654650829</v>
       </c>
       <c r="I10">
-        <v>19.47394593238992</v>
+        <v>30.17523058678488</v>
       </c>
       <c r="J10">
-        <v>6.026998806701648</v>
+        <v>10.46468959742871</v>
       </c>
       <c r="K10">
-        <v>13.40157899245474</v>
+        <v>12.6621643978373</v>
       </c>
       <c r="L10">
-        <v>7.351983815784488</v>
+        <v>11.82031223367692</v>
       </c>
       <c r="M10">
-        <v>11.68843671352665</v>
+        <v>16.5162401967933</v>
       </c>
       <c r="N10">
-        <v>13.80879752600274</v>
+        <v>22.24450072852202</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.88400022801125</v>
+        <v>15.57608347794855</v>
       </c>
       <c r="C11">
-        <v>7.860435975496885</v>
+        <v>6.206936037315407</v>
       </c>
       <c r="D11">
-        <v>5.042499640566481</v>
+        <v>7.473196761789046</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.12148690043303</v>
+        <v>40.88550722380215</v>
       </c>
       <c r="G11">
-        <v>37.08740815341558</v>
+        <v>48.24682121339943</v>
       </c>
       <c r="H11">
-        <v>12.06393551422105</v>
+        <v>19.11491006251327</v>
       </c>
       <c r="I11">
-        <v>19.48659566861392</v>
+        <v>30.13208939397441</v>
       </c>
       <c r="J11">
-        <v>5.998407879670314</v>
+        <v>10.45418573670544</v>
       </c>
       <c r="K11">
-        <v>13.87579836662585</v>
+        <v>12.76057685722273</v>
       </c>
       <c r="L11">
-        <v>7.419432103617349</v>
+        <v>11.81774503966809</v>
       </c>
       <c r="M11">
-        <v>11.91624043001737</v>
+        <v>16.538260870614</v>
       </c>
       <c r="N11">
-        <v>13.65034398719899</v>
+        <v>22.20221269367999</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.08357219495241</v>
+        <v>15.62745848615193</v>
       </c>
       <c r="C12">
-        <v>7.93957046515459</v>
+        <v>6.238654370285997</v>
       </c>
       <c r="D12">
-        <v>5.076242491270964</v>
+        <v>7.476443217733217</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.22865310954668</v>
+        <v>40.8793177260399</v>
       </c>
       <c r="G12">
-        <v>37.26162714891115</v>
+        <v>48.24658325200691</v>
       </c>
       <c r="H12">
-        <v>12.0693473396767</v>
+        <v>19.10585748447998</v>
       </c>
       <c r="I12">
-        <v>19.49370957798508</v>
+        <v>30.11644858810017</v>
       </c>
       <c r="J12">
-        <v>5.987713781898078</v>
+        <v>10.45029001747888</v>
       </c>
       <c r="K12">
-        <v>14.05177519904234</v>
+        <v>12.79797466623664</v>
       </c>
       <c r="L12">
-        <v>7.44528901293611</v>
+        <v>11.81697199334803</v>
       </c>
       <c r="M12">
-        <v>12.00216452953772</v>
+        <v>16.54692589639859</v>
       </c>
       <c r="N12">
-        <v>13.59067988819866</v>
+        <v>22.18646506259116</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.04074067230067</v>
+        <v>15.61639012757499</v>
       </c>
       <c r="C13">
-        <v>7.922581295912351</v>
+        <v>6.23184291105869</v>
       </c>
       <c r="D13">
-        <v>5.068983532358998</v>
+        <v>7.475738948493041</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.20543486560702</v>
+        <v>40.88060018877849</v>
       </c>
       <c r="G13">
-        <v>37.22390840192983</v>
+        <v>48.24656291286845</v>
       </c>
       <c r="H13">
-        <v>12.06812410450835</v>
+        <v>19.1077892545266</v>
       </c>
       <c r="I13">
-        <v>19.49207222275012</v>
+        <v>30.1197861614882</v>
       </c>
       <c r="J13">
-        <v>5.990011088195915</v>
+        <v>10.45112539489982</v>
       </c>
       <c r="K13">
-        <v>14.01403478736521</v>
+        <v>12.78991503812417</v>
       </c>
       <c r="L13">
-        <v>7.439706348967631</v>
+        <v>11.81712964194006</v>
       </c>
       <c r="M13">
-        <v>11.98367531993096</v>
+        <v>16.54504529268785</v>
       </c>
       <c r="N13">
-        <v>13.6035149503228</v>
+        <v>22.18984478677815</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.90048663181377</v>
+        <v>15.58030833985485</v>
       </c>
       <c r="C14">
-        <v>7.866970691297544</v>
+        <v>6.209554358940252</v>
       </c>
       <c r="D14">
-        <v>5.045279331060082</v>
+        <v>7.473461554905018</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.13024138189092</v>
+        <v>40.8849752272894</v>
       </c>
       <c r="G14">
-        <v>37.10165230312291</v>
+        <v>48.24676937526432</v>
       </c>
       <c r="H14">
-        <v>12.06435483590716</v>
+        <v>19.11415725124809</v>
       </c>
       <c r="I14">
-        <v>19.4871336808056</v>
+        <v>30.13078866755088</v>
       </c>
       <c r="J14">
-        <v>5.997525425839574</v>
+        <v>10.45386359484109</v>
       </c>
       <c r="K14">
-        <v>13.89034796115305</v>
+        <v>12.76365114612853</v>
       </c>
       <c r="L14">
-        <v>7.421553084990959</v>
+        <v>11.81767745556028</v>
       </c>
       <c r="M14">
-        <v>11.92331662020641</v>
+        <v>16.53896723566143</v>
       </c>
       <c r="N14">
-        <v>13.6454287390093</v>
+        <v>22.20091180321585</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.81413858138441</v>
+        <v>15.55821917665542</v>
       </c>
       <c r="C15">
-        <v>7.832749842836375</v>
+        <v>6.195844670280326</v>
       </c>
       <c r="D15">
-        <v>5.030736314444488</v>
+        <v>7.472081510060212</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.08458663494675</v>
+        <v>40.88780311260677</v>
       </c>
       <c r="G15">
-        <v>37.02734451893433</v>
+        <v>48.24710547904194</v>
       </c>
       <c r="H15">
-        <v>12.0622139652203</v>
+        <v>19.11811014371983</v>
       </c>
       <c r="I15">
-        <v>19.48441483174721</v>
+        <v>30.13761865046756</v>
       </c>
       <c r="J15">
-        <v>6.002145374798033</v>
+        <v>10.45555147225047</v>
       </c>
       <c r="K15">
-        <v>13.81411880891582</v>
+        <v>12.74757991561098</v>
       </c>
       <c r="L15">
-        <v>7.410474566888678</v>
+        <v>11.81803890920864</v>
       </c>
       <c r="M15">
-        <v>11.88629907269734</v>
+        <v>16.5352866002758</v>
       </c>
       <c r="N15">
-        <v>13.67114552654127</v>
+        <v>22.20772526983988</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.31261596911123</v>
+        <v>15.43185196341527</v>
       </c>
       <c r="C16">
-        <v>7.634225436109579</v>
+        <v>6.11641217054805</v>
       </c>
       <c r="D16">
-        <v>4.947054285794235</v>
+        <v>7.464403064789306</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.82910130344705</v>
+        <v>40.90627820077419</v>
       </c>
       <c r="G16">
-        <v>36.61032905857162</v>
+        <v>48.25224541352318</v>
       </c>
       <c r="H16">
-        <v>12.0524735976427</v>
+        <v>19.14156437688262</v>
       </c>
       <c r="I16">
-        <v>19.47343795652847</v>
+        <v>30.17814731195003</v>
       </c>
       <c r="J16">
-        <v>6.028885995972753</v>
+        <v>10.4653875242327</v>
       </c>
       <c r="K16">
-        <v>13.37008137192406</v>
+        <v>12.65575294870936</v>
       </c>
       <c r="L16">
-        <v>7.347620521122419</v>
+        <v>11.82050791344332</v>
       </c>
       <c r="M16">
-        <v>11.67350495174976</v>
+        <v>16.51484700702285</v>
       </c>
       <c r="N16">
-        <v>13.81920160331037</v>
+        <v>22.24730162368662</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.99900196809008</v>
+        <v>15.35455966291009</v>
       </c>
       <c r="C17">
-        <v>7.510279873719454</v>
+        <v>6.066920329995503</v>
       </c>
       <c r="D17">
-        <v>4.895433846225562</v>
+        <v>7.459899223613641</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.67780677822953</v>
+        <v>40.91963764882298</v>
       </c>
       <c r="G17">
-        <v>36.3623209580478</v>
+        <v>48.2582668019202</v>
       </c>
       <c r="H17">
-        <v>12.04870495131016</v>
+        <v>19.15666827359954</v>
       </c>
       <c r="I17">
-        <v>19.47071635281299</v>
+        <v>30.20424920840436</v>
       </c>
       <c r="J17">
-        <v>6.045529541219977</v>
+        <v>10.47156780897769</v>
       </c>
       <c r="K17">
-        <v>13.09121769772929</v>
+        <v>12.59968676940874</v>
       </c>
       <c r="L17">
-        <v>7.309632397511553</v>
+        <v>11.82237810128902</v>
       </c>
       <c r="M17">
-        <v>11.54242359172382</v>
+        <v>16.50289410316168</v>
       </c>
       <c r="N17">
-        <v>13.91065913781494</v>
+        <v>22.2720552623075</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.81644821363495</v>
+        <v>15.31020214219872</v>
       </c>
       <c r="C18">
-        <v>7.438197913061216</v>
+        <v>6.038178503815729</v>
       </c>
       <c r="D18">
-        <v>4.865647268938257</v>
+        <v>7.457385206918524</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.59276621636898</v>
+        <v>40.92806612983611</v>
       </c>
       <c r="G18">
-        <v>36.22252694924327</v>
+        <v>48.26278424556657</v>
       </c>
       <c r="H18">
-        <v>12.04732901178218</v>
+        <v>19.16561857807694</v>
       </c>
       <c r="I18">
-        <v>19.47058788718729</v>
+        <v>30.21971745937894</v>
       </c>
       <c r="J18">
-        <v>6.055191128089684</v>
+        <v>10.47517638070752</v>
       </c>
       <c r="K18">
-        <v>12.92843378478489</v>
+        <v>12.56754694710155</v>
       </c>
       <c r="L18">
-        <v>7.287994962029957</v>
+        <v>11.8235847107524</v>
       </c>
       <c r="M18">
-        <v>11.46685217967537</v>
+        <v>16.49623596741739</v>
       </c>
       <c r="N18">
-        <v>13.963502383904</v>
+        <v>22.28646775194724</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.75426726200258</v>
+        <v>15.29520182302323</v>
       </c>
       <c r="C19">
-        <v>7.413656380947844</v>
+        <v>6.028400180057303</v>
       </c>
       <c r="D19">
-        <v>4.855546424999185</v>
+        <v>7.456547188423595</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.56431123763723</v>
+        <v>40.93104773692451</v>
       </c>
       <c r="G19">
-        <v>36.17568331098509</v>
+        <v>48.26449481009882</v>
       </c>
       <c r="H19">
-        <v>12.04699730254605</v>
+        <v>19.16869415818084</v>
       </c>
       <c r="I19">
-        <v>19.47078764926605</v>
+        <v>30.22503289754266</v>
       </c>
       <c r="J19">
-        <v>6.058477679106005</v>
+        <v>10.47640743810381</v>
       </c>
       <c r="K19">
-        <v>12.87290630895451</v>
+        <v>12.55668444193464</v>
       </c>
       <c r="L19">
-        <v>7.280705608750073</v>
+        <v>11.82401575979054</v>
       </c>
       <c r="M19">
-        <v>11.44123671571315</v>
+        <v>16.49401901813651</v>
       </c>
       <c r="N19">
-        <v>13.98143602570064</v>
+        <v>22.29137763792313</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.03261178286344</v>
+        <v>15.3627776448874</v>
       </c>
       <c r="C20">
-        <v>7.523556068673844</v>
+        <v>6.072217437590494</v>
       </c>
       <c r="D20">
-        <v>4.900939050729926</v>
+        <v>7.460370762396876</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.69370699171326</v>
+        <v>40.9181384629323</v>
       </c>
       <c r="G20">
-        <v>36.38842604928706</v>
+        <v>48.25751671842257</v>
       </c>
       <c r="H20">
-        <v>12.04902376169033</v>
+        <v>19.15503322447821</v>
       </c>
       <c r="I20">
-        <v>19.47085651309933</v>
+        <v>30.20142350912692</v>
       </c>
       <c r="J20">
-        <v>6.043748649651335</v>
+        <v>10.47090433790229</v>
       </c>
       <c r="K20">
-        <v>13.1211501330015</v>
+        <v>12.60564416077288</v>
       </c>
       <c r="L20">
-        <v>7.313654380738452</v>
+        <v>11.82216547213796</v>
       </c>
       <c r="M20">
-        <v>11.55639622601722</v>
+        <v>16.50414409853854</v>
       </c>
       <c r="N20">
-        <v>13.90089873521319</v>
+        <v>22.26940210674485</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.94177405353682</v>
+        <v>15.59090401980434</v>
       </c>
       <c r="C21">
-        <v>7.883337744438185</v>
+        <v>6.216113014495327</v>
       </c>
       <c r="D21">
-        <v>5.052246771923728</v>
+        <v>7.474127373454134</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.15224336137381</v>
+        <v>40.88365932062227</v>
       </c>
       <c r="G21">
-        <v>37.13744141483295</v>
+        <v>48.24666504549847</v>
       </c>
       <c r="H21">
-        <v>12.06542685838261</v>
+        <v>19.11227591483338</v>
       </c>
       <c r="I21">
-        <v>19.48852023543861</v>
+        <v>30.12753807678924</v>
       </c>
       <c r="J21">
-        <v>5.995314702874521</v>
+        <v>10.45305710013005</v>
       </c>
       <c r="K21">
-        <v>13.92677510103994</v>
+        <v>12.77136217487324</v>
       </c>
       <c r="L21">
-        <v>7.426876633244609</v>
+        <v>11.81751115305079</v>
       </c>
       <c r="M21">
-        <v>11.9410551458452</v>
+        <v>16.54074369117964</v>
       </c>
       <c r="N21">
-        <v>13.63310864760218</v>
+        <v>22.19765394365903</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.55055724292099</v>
+        <v>15.74057261900824</v>
       </c>
       <c r="C22">
-        <v>8.111417054372813</v>
+        <v>6.307604889364218</v>
       </c>
       <c r="D22">
-        <v>5.150105488730315</v>
+        <v>7.483787554218423</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.46993226066749</v>
+        <v>40.86775180217187</v>
       </c>
       <c r="G22">
-        <v>37.6527689911338</v>
+        <v>48.24895614027337</v>
       </c>
       <c r="H22">
-        <v>12.0836105299712</v>
+        <v>19.0866728573091</v>
       </c>
       <c r="I22">
-        <v>19.51366537490771</v>
+        <v>30.08330567198161</v>
       </c>
       <c r="J22">
-        <v>5.964432359656824</v>
+        <v>10.44186990940232</v>
       </c>
       <c r="K22">
-        <v>14.43233844812628</v>
+        <v>12.88041863196817</v>
       </c>
       <c r="L22">
-        <v>7.502710542702427</v>
+        <v>11.8156293328178</v>
       </c>
       <c r="M22">
-        <v>12.19044423324519</v>
+        <v>16.56656310926908</v>
       </c>
       <c r="N22">
-        <v>13.46005516766381</v>
+        <v>22.15231191318492</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.21663415680108</v>
+        <v>15.66065379844078</v>
       </c>
       <c r="C23">
-        <v>7.990332012815647</v>
+        <v>6.25901207488555</v>
       </c>
       <c r="D23">
-        <v>5.097978645179018</v>
+        <v>7.478571053185538</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.29871039797399</v>
+        <v>40.87563584052995</v>
       </c>
       <c r="G23">
-        <v>37.37535027493276</v>
+        <v>48.24687512801881</v>
       </c>
       <c r="H23">
-        <v>12.0732023530264</v>
+        <v>19.10012347307593</v>
       </c>
       <c r="I23">
-        <v>19.49896095238439</v>
+        <v>30.10654207398271</v>
       </c>
       <c r="J23">
-        <v>5.980845066681375</v>
+        <v>10.44779719200017</v>
       </c>
       <c r="K23">
-        <v>14.16441183012671</v>
+        <v>12.82215470722855</v>
       </c>
       <c r="L23">
-        <v>7.462071091892689</v>
+        <v>11.81652784389007</v>
       </c>
       <c r="M23">
-        <v>12.05754373289981</v>
+        <v>16.55261058010774</v>
       </c>
       <c r="N23">
-        <v>13.55224580501842</v>
+        <v>22.17637038513248</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.0174237995833</v>
+        <v>15.35906204617795</v>
       </c>
       <c r="C24">
-        <v>7.517556467286757</v>
+        <v>6.069823512163437</v>
       </c>
       <c r="D24">
-        <v>4.898450486190673</v>
+        <v>7.46015734504453</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.68651246470444</v>
+        <v>40.91881391499671</v>
       </c>
       <c r="G24">
-        <v>36.3766152544513</v>
+        <v>48.25785254279437</v>
       </c>
       <c r="H24">
-        <v>12.04887716919339</v>
+        <v>19.15577159887355</v>
       </c>
       <c r="I24">
-        <v>19.47078868199087</v>
+        <v>30.202699568922</v>
       </c>
       <c r="J24">
-        <v>6.0445535008917</v>
+        <v>10.47120412044733</v>
       </c>
       <c r="K24">
-        <v>13.1076253493621</v>
+        <v>12.60295053092947</v>
       </c>
       <c r="L24">
-        <v>7.311835410951617</v>
+        <v>11.82226119237695</v>
       </c>
       <c r="M24">
-        <v>11.55007985024209</v>
+        <v>16.50357830947894</v>
       </c>
       <c r="N24">
-        <v>13.90531059192243</v>
+        <v>22.27060103355327</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.64673986409964</v>
+        <v>15.03771393662499</v>
       </c>
       <c r="C25">
-        <v>6.977382941572564</v>
+        <v>5.855292681511812</v>
       </c>
       <c r="D25">
-        <v>4.679691226442467</v>
+        <v>7.443224925723217</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.10158291048358</v>
+        <v>40.9938484350244</v>
       </c>
       <c r="G25">
-        <v>35.40809693737067</v>
+        <v>48.30998544719665</v>
       </c>
       <c r="H25">
-        <v>12.05267452785772</v>
+        <v>19.22584981914112</v>
       </c>
       <c r="I25">
-        <v>19.49488396475385</v>
+        <v>30.32381929840816</v>
       </c>
       <c r="J25">
-        <v>6.116672858187919</v>
+        <v>10.49851202268439</v>
       </c>
       <c r="K25">
-        <v>11.8762136651229</v>
+        <v>12.37075505089441</v>
       </c>
       <c r="L25">
-        <v>7.157930677680474</v>
+        <v>11.83345404899817</v>
       </c>
       <c r="M25">
-        <v>10.99626211908234</v>
+        <v>16.45899583788475</v>
       </c>
       <c r="N25">
-        <v>14.2953882253289</v>
+        <v>22.37893378638985</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_106/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_106/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.80612595998577</v>
+        <v>13.56881030512843</v>
       </c>
       <c r="C2">
-        <v>5.688914384200675</v>
+        <v>6.554013223041033</v>
       </c>
       <c r="D2">
-        <v>7.433330301160994</v>
+        <v>4.516647174539842</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.07355706935063</v>
+        <v>27.7332561720727</v>
       </c>
       <c r="G2">
-        <v>48.38296573053749</v>
+        <v>34.78559626401156</v>
       </c>
       <c r="H2">
-        <v>19.28609938388824</v>
+        <v>12.07913934505705</v>
       </c>
       <c r="I2">
-        <v>30.42795352077218</v>
+        <v>19.5552667507614</v>
       </c>
       <c r="J2">
-        <v>10.52040685865705</v>
+        <v>6.172798623721014</v>
       </c>
       <c r="K2">
-        <v>12.20453708993182</v>
+        <v>10.88913740819604</v>
       </c>
       <c r="L2">
-        <v>11.8460302092484</v>
+        <v>7.051871614296376</v>
       </c>
       <c r="M2">
-        <v>16.43345541587372</v>
+        <v>10.58562904761445</v>
       </c>
       <c r="N2">
-        <v>22.46450857345616</v>
+        <v>14.59146194984068</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.65312028654114</v>
+        <v>12.79745446336028</v>
       </c>
       <c r="C3">
-        <v>5.571236714660224</v>
+        <v>6.251488206702102</v>
       </c>
       <c r="D3">
-        <v>7.428254365287355</v>
+        <v>4.405537950960132</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>41.14281567594985</v>
+        <v>27.52106045774331</v>
       </c>
       <c r="G3">
-        <v>48.45394970695931</v>
+        <v>34.41837368958643</v>
       </c>
       <c r="H3">
-        <v>19.33232995972031</v>
+        <v>12.11078856841273</v>
       </c>
       <c r="I3">
-        <v>30.5078490732858</v>
+        <v>19.62073970179111</v>
       </c>
       <c r="J3">
-        <v>10.53636907237344</v>
+        <v>6.212771039870681</v>
       </c>
       <c r="K3">
-        <v>12.09539462162928</v>
+        <v>10.16926258744362</v>
       </c>
       <c r="L3">
-        <v>11.85727002920242</v>
+        <v>6.984640180524153</v>
       </c>
       <c r="M3">
-        <v>16.42075543751854</v>
+        <v>10.30712162842242</v>
       </c>
       <c r="N3">
-        <v>22.52615590170458</v>
+        <v>14.7980744412404</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.56138822428877</v>
+        <v>12.30468101361477</v>
       </c>
       <c r="C4">
-        <v>5.496677674401181</v>
+        <v>6.058248657865674</v>
       </c>
       <c r="D4">
-        <v>7.425949518872491</v>
+        <v>4.337241639414724</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>41.19284837216055</v>
+        <v>27.4086720672542</v>
       </c>
       <c r="G4">
-        <v>48.50812593215856</v>
+        <v>34.21909583642832</v>
       </c>
       <c r="H4">
-        <v>19.36337936735459</v>
+        <v>12.1366476275638</v>
       </c>
       <c r="I4">
-        <v>30.56150165350656</v>
+        <v>19.67239182847944</v>
       </c>
       <c r="J4">
-        <v>10.54672707243143</v>
+        <v>6.23828444830541</v>
       </c>
       <c r="K4">
-        <v>12.0302876638906</v>
+        <v>9.77281248748092</v>
       </c>
       <c r="L4">
-        <v>11.86551545490169</v>
+        <v>6.945685266833744</v>
       </c>
       <c r="M4">
-        <v>16.4152507495921</v>
+        <v>10.13658952701085</v>
       </c>
       <c r="N4">
-        <v>22.56581841370652</v>
+        <v>14.92801097509846</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.52460358655552</v>
+        <v>12.09924357672431</v>
       </c>
       <c r="C5">
-        <v>5.46573482353373</v>
+        <v>5.977660373091865</v>
       </c>
       <c r="D5">
-        <v>7.425215609953161</v>
+        <v>4.309427866148543</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.21512347449497</v>
+        <v>27.36728463308907</v>
       </c>
       <c r="G5">
-        <v>48.53286243492127</v>
+        <v>34.14434952472967</v>
       </c>
       <c r="H5">
-        <v>19.37670212345568</v>
+        <v>12.14875237004938</v>
       </c>
       <c r="I5">
-        <v>30.58452095882555</v>
+        <v>19.69622473977153</v>
       </c>
       <c r="J5">
-        <v>10.55108852718973</v>
+        <v>6.248927494561461</v>
       </c>
       <c r="K5">
-        <v>12.00426205444331</v>
+        <v>9.615648453812483</v>
       </c>
       <c r="L5">
-        <v>11.86921414409781</v>
+        <v>6.930400226089042</v>
       </c>
       <c r="M5">
-        <v>16.41358710288995</v>
+        <v>10.06730792195626</v>
       </c>
       <c r="N5">
-        <v>22.58243779254768</v>
+        <v>14.98175341661558</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.51853273052283</v>
+        <v>12.064857659416</v>
       </c>
       <c r="C6">
-        <v>5.460563606057653</v>
+        <v>5.964168911232984</v>
       </c>
       <c r="D6">
-        <v>7.425106180375438</v>
+        <v>4.304811557591938</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.21893612023024</v>
+        <v>27.36067596779114</v>
       </c>
       <c r="G6">
-        <v>48.53713038788936</v>
+        <v>34.13232416463887</v>
       </c>
       <c r="H6">
-        <v>19.37895481736408</v>
+        <v>12.15085558387917</v>
       </c>
       <c r="I6">
-        <v>30.58841307188818</v>
+        <v>19.70034759798872</v>
       </c>
       <c r="J6">
-        <v>10.55182123987783</v>
+        <v>6.250709692231293</v>
       </c>
       <c r="K6">
-        <v>11.99997183904174</v>
+        <v>9.589356237100949</v>
       </c>
       <c r="L6">
-        <v>11.86984877722163</v>
+        <v>6.927897871555902</v>
       </c>
       <c r="M6">
-        <v>16.41334593998296</v>
+        <v>10.05581932322107</v>
       </c>
       <c r="N6">
-        <v>22.58522504081321</v>
+        <v>14.99072569788799</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.56088966462267</v>
+        <v>12.30192887177867</v>
       </c>
       <c r="C7">
-        <v>5.496262606111887</v>
+        <v>6.057169211298229</v>
       </c>
       <c r="D7">
-        <v>7.425938788183983</v>
+        <v>4.336866413135479</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.19314114637421</v>
+        <v>27.40809616290065</v>
       </c>
       <c r="G7">
-        <v>48.50844877617851</v>
+        <v>34.2180618003793</v>
       </c>
       <c r="H7">
-        <v>19.36355633034744</v>
+        <v>12.13680459563245</v>
       </c>
       <c r="I7">
-        <v>30.56180742207055</v>
+        <v>19.67270209826571</v>
       </c>
       <c r="J7">
-        <v>10.5467853231957</v>
+        <v>6.238426984753458</v>
       </c>
       <c r="K7">
-        <v>12.02993459032735</v>
+        <v>9.770706127967966</v>
       </c>
       <c r="L7">
-        <v>11.86556396490223</v>
+        <v>6.945476735534338</v>
       </c>
       <c r="M7">
-        <v>16.41522596278715</v>
+        <v>10.13565418908721</v>
       </c>
       <c r="N7">
-        <v>22.56604069813334</v>
+        <v>14.92873253214781</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.75293451002885</v>
+        <v>13.30692411976414</v>
       </c>
       <c r="C8">
-        <v>5.648829082529201</v>
+        <v>6.4512786722976</v>
       </c>
       <c r="D8">
-        <v>7.431412369401966</v>
+        <v>4.478373576657894</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>41.09587843568688</v>
+        <v>27.65632438370387</v>
       </c>
       <c r="G8">
-        <v>48.4052404256262</v>
+        <v>34.65346917454121</v>
       </c>
       <c r="H8">
-        <v>19.30148689674156</v>
+        <v>12.08868839574984</v>
       </c>
       <c r="I8">
-        <v>30.45454732343796</v>
+        <v>19.57540698623059</v>
       </c>
       <c r="J8">
-        <v>10.52579523077006</v>
+        <v>6.186381071047258</v>
       </c>
       <c r="K8">
-        <v>12.16652513679476</v>
+        <v>10.64616652014284</v>
       </c>
       <c r="L8">
-        <v>11.84962710641561</v>
+        <v>7.028210631133565</v>
       </c>
       <c r="M8">
-        <v>16.42860234861351</v>
+        <v>10.48955608066293</v>
       </c>
       <c r="N8">
-        <v>22.48538949094934</v>
+        <v>14.66207516101223</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.14528925234744</v>
+        <v>15.11933410175807</v>
       </c>
       <c r="C9">
-        <v>5.928906823343101</v>
+        <v>7.1633598829225</v>
       </c>
       <c r="D9">
-        <v>7.448532459720206</v>
+        <v>4.753763741515507</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.96477142307958</v>
+        <v>28.288751825325</v>
       </c>
       <c r="G9">
-        <v>48.28704495053251</v>
+        <v>35.72005044419151</v>
       </c>
       <c r="H9">
-        <v>19.20090029831428</v>
+        <v>12.04757620953737</v>
       </c>
       <c r="I9">
-        <v>30.28069624075923</v>
+        <v>19.47986565872687</v>
       </c>
       <c r="J9">
-        <v>10.48903665489589</v>
+        <v>6.091916099681296</v>
       </c>
       <c r="K9">
-        <v>12.44830621231038</v>
+        <v>12.303396018005</v>
       </c>
       <c r="L9">
-        <v>11.82901210738993</v>
+        <v>7.208662547378922</v>
       </c>
       <c r="M9">
-        <v>16.47289088492826</v>
+        <v>11.18345408449482</v>
       </c>
       <c r="N9">
-        <v>22.34154296837627</v>
+        <v>14.16267281380895</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.44068391235287</v>
+        <v>16.34810621770657</v>
       </c>
       <c r="C10">
-        <v>6.122021859309949</v>
+        <v>7.648261105246918</v>
       </c>
       <c r="D10">
-        <v>7.464927308309999</v>
+        <v>4.95293091498069</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>40.90485466967257</v>
+        <v>28.84663469985285</v>
       </c>
       <c r="G10">
-        <v>48.25170116573216</v>
+        <v>36.63901661107966</v>
       </c>
       <c r="H10">
-        <v>19.13987654650829</v>
+        <v>12.05301229404634</v>
       </c>
       <c r="I10">
-        <v>30.17523058678488</v>
+        <v>19.47394593238997</v>
       </c>
       <c r="J10">
-        <v>10.46468959742871</v>
+        <v>6.026998806701613</v>
       </c>
       <c r="K10">
-        <v>12.6621643978373</v>
+        <v>13.40157899245473</v>
       </c>
       <c r="L10">
-        <v>11.82031223367692</v>
+        <v>7.351983815784556</v>
       </c>
       <c r="M10">
-        <v>16.5162401967933</v>
+        <v>11.68843671352668</v>
       </c>
       <c r="N10">
-        <v>22.24450072852202</v>
+        <v>13.80879752600274</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.57608347794855</v>
+        <v>16.88400022801125</v>
       </c>
       <c r="C11">
-        <v>6.206936037315407</v>
+        <v>7.860435975496771</v>
       </c>
       <c r="D11">
-        <v>7.473196761789046</v>
+        <v>5.042499640566519</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.88550722380215</v>
+        <v>29.12148690043302</v>
       </c>
       <c r="G11">
-        <v>48.24682121339943</v>
+        <v>37.08740815341549</v>
       </c>
       <c r="H11">
-        <v>19.11491006251327</v>
+        <v>12.06393551422101</v>
       </c>
       <c r="I11">
-        <v>30.13208939397441</v>
+        <v>19.48659566861387</v>
       </c>
       <c r="J11">
-        <v>10.45418573670544</v>
+        <v>5.99840787967025</v>
       </c>
       <c r="K11">
-        <v>12.76057685722273</v>
+        <v>13.87579836662585</v>
       </c>
       <c r="L11">
-        <v>11.81774503966809</v>
+        <v>7.419432103617342</v>
       </c>
       <c r="M11">
-        <v>16.538260870614</v>
+        <v>11.91624043001736</v>
       </c>
       <c r="N11">
-        <v>22.20221269367999</v>
+        <v>13.65034398719893</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.62745848615193</v>
+        <v>17.0835721949524</v>
       </c>
       <c r="C12">
-        <v>6.238654370285997</v>
+        <v>7.939570465154673</v>
       </c>
       <c r="D12">
-        <v>7.476443217733217</v>
+        <v>5.076242491271072</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.8793177260399</v>
+        <v>29.2286531095469</v>
       </c>
       <c r="G12">
-        <v>48.24658325200691</v>
+        <v>37.26162714891136</v>
       </c>
       <c r="H12">
-        <v>19.10585748447998</v>
+        <v>12.06934733967676</v>
       </c>
       <c r="I12">
-        <v>30.11644858810017</v>
+        <v>19.49370957798519</v>
       </c>
       <c r="J12">
-        <v>10.45029001747888</v>
+        <v>5.987713781898076</v>
       </c>
       <c r="K12">
-        <v>12.79797466623664</v>
+        <v>14.05177519904231</v>
       </c>
       <c r="L12">
-        <v>11.81697199334803</v>
+        <v>7.445289012936171</v>
       </c>
       <c r="M12">
-        <v>16.54692589639859</v>
+        <v>12.00216452953776</v>
       </c>
       <c r="N12">
-        <v>22.18646506259116</v>
+        <v>13.59067988819874</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.61639012757499</v>
+        <v>17.04074067230068</v>
       </c>
       <c r="C13">
-        <v>6.23184291105869</v>
+        <v>7.922581295912455</v>
       </c>
       <c r="D13">
-        <v>7.475738948493041</v>
+        <v>5.068983532359105</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.88060018877849</v>
+        <v>29.20543486560715</v>
       </c>
       <c r="G13">
-        <v>48.24656291286845</v>
+        <v>37.22390840192988</v>
       </c>
       <c r="H13">
-        <v>19.1077892545266</v>
+        <v>12.06812410450834</v>
       </c>
       <c r="I13">
-        <v>30.1197861614882</v>
+        <v>19.49207222275023</v>
       </c>
       <c r="J13">
-        <v>10.45112539489982</v>
+        <v>5.990011088196048</v>
       </c>
       <c r="K13">
-        <v>12.78991503812417</v>
+        <v>14.01403478736519</v>
       </c>
       <c r="L13">
-        <v>11.81712964194006</v>
+        <v>7.439706348967697</v>
       </c>
       <c r="M13">
-        <v>16.54504529268785</v>
+        <v>11.98367531993102</v>
       </c>
       <c r="N13">
-        <v>22.18984478677815</v>
+        <v>13.60351495032287</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.58030833985485</v>
+        <v>16.90048663181378</v>
       </c>
       <c r="C14">
-        <v>6.209554358940252</v>
+        <v>7.866970691297436</v>
       </c>
       <c r="D14">
-        <v>7.473461554905018</v>
+        <v>5.04527933106023</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.8849752272894</v>
+        <v>29.13024138189101</v>
       </c>
       <c r="G14">
-        <v>48.24676937526432</v>
+        <v>37.10165230312283</v>
       </c>
       <c r="H14">
-        <v>19.11415725124809</v>
+        <v>12.06435483590725</v>
       </c>
       <c r="I14">
-        <v>30.13078866755088</v>
+        <v>19.48713368080557</v>
       </c>
       <c r="J14">
-        <v>10.45386359484109</v>
+        <v>5.997525425839607</v>
       </c>
       <c r="K14">
-        <v>12.76365114612853</v>
+        <v>13.89034796115304</v>
       </c>
       <c r="L14">
-        <v>11.81767745556028</v>
+        <v>7.421553084991078</v>
       </c>
       <c r="M14">
-        <v>16.53896723566143</v>
+        <v>11.92331662020648</v>
       </c>
       <c r="N14">
-        <v>22.20091180321585</v>
+        <v>13.64542873900927</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.55821917665542</v>
+        <v>16.81413858138441</v>
       </c>
       <c r="C15">
-        <v>6.195844670280326</v>
+        <v>7.832749842836273</v>
       </c>
       <c r="D15">
-        <v>7.472081510060212</v>
+        <v>5.030736314444373</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.88780311260677</v>
+        <v>29.08458663494668</v>
       </c>
       <c r="G15">
-        <v>48.24710547904194</v>
+        <v>37.02734451893432</v>
       </c>
       <c r="H15">
-        <v>19.11811014371983</v>
+        <v>12.0622139652203</v>
       </c>
       <c r="I15">
-        <v>30.13761865046756</v>
+        <v>19.4844148317472</v>
       </c>
       <c r="J15">
-        <v>10.45555147225047</v>
+        <v>6.002145374798131</v>
       </c>
       <c r="K15">
-        <v>12.74757991561098</v>
+        <v>13.81411880891581</v>
       </c>
       <c r="L15">
-        <v>11.81803890920864</v>
+        <v>7.410474566888722</v>
       </c>
       <c r="M15">
-        <v>16.5352866002758</v>
+        <v>11.88629907269737</v>
       </c>
       <c r="N15">
-        <v>22.20772526983988</v>
+        <v>13.67114552654124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.43185196341527</v>
+        <v>16.31261596911123</v>
       </c>
       <c r="C16">
-        <v>6.11641217054805</v>
+        <v>7.634225436109491</v>
       </c>
       <c r="D16">
-        <v>7.464403064789306</v>
+        <v>4.947054285794222</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>40.90627820077419</v>
+        <v>28.82910130344727</v>
       </c>
       <c r="G16">
-        <v>48.25224541352318</v>
+        <v>36.610329058572</v>
       </c>
       <c r="H16">
-        <v>19.14156437688262</v>
+        <v>12.05247359764276</v>
       </c>
       <c r="I16">
-        <v>30.17814731195003</v>
+        <v>19.47343795652867</v>
       </c>
       <c r="J16">
-        <v>10.4653875242327</v>
+        <v>6.02888599597282</v>
       </c>
       <c r="K16">
-        <v>12.65575294870936</v>
+        <v>13.37008137192404</v>
       </c>
       <c r="L16">
-        <v>11.82050791344332</v>
+        <v>7.34762052112245</v>
       </c>
       <c r="M16">
-        <v>16.51484700702285</v>
+        <v>11.67350495174979</v>
       </c>
       <c r="N16">
-        <v>22.24730162368662</v>
+        <v>13.81920160331053</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.35455966291009</v>
+        <v>15.9990019680901</v>
       </c>
       <c r="C17">
-        <v>6.066920329995503</v>
+        <v>7.510279873719523</v>
       </c>
       <c r="D17">
-        <v>7.459899223613641</v>
+        <v>4.895433846225528</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>40.91963764882298</v>
+        <v>28.67780677822967</v>
       </c>
       <c r="G17">
-        <v>48.2582668019202</v>
+        <v>36.36232095804805</v>
       </c>
       <c r="H17">
-        <v>19.15666827359954</v>
+        <v>12.04870495131015</v>
       </c>
       <c r="I17">
-        <v>30.20424920840436</v>
+        <v>19.47071635281312</v>
       </c>
       <c r="J17">
-        <v>10.47156780897769</v>
+        <v>6.04552954122008</v>
       </c>
       <c r="K17">
-        <v>12.59968676940874</v>
+        <v>13.09121769772924</v>
       </c>
       <c r="L17">
-        <v>11.82237810128902</v>
+        <v>7.309632397511636</v>
       </c>
       <c r="M17">
-        <v>16.50289410316168</v>
+        <v>11.54242359172386</v>
       </c>
       <c r="N17">
-        <v>22.2720552623075</v>
+        <v>13.91065913781497</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.31020214219872</v>
+        <v>15.81644821363496</v>
       </c>
       <c r="C18">
-        <v>6.038178503815729</v>
+        <v>7.438197913061299</v>
       </c>
       <c r="D18">
-        <v>7.457385206918524</v>
+        <v>4.865647268938283</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>40.92806612983611</v>
+        <v>28.59276621636892</v>
       </c>
       <c r="G18">
-        <v>48.26278424556657</v>
+        <v>36.22252694924314</v>
       </c>
       <c r="H18">
-        <v>19.16561857807694</v>
+        <v>12.04732901178214</v>
       </c>
       <c r="I18">
-        <v>30.21971745937894</v>
+        <v>19.47058788718724</v>
       </c>
       <c r="J18">
-        <v>10.47517638070752</v>
+        <v>6.055191128089816</v>
       </c>
       <c r="K18">
-        <v>12.56754694710155</v>
+        <v>12.92843378478491</v>
       </c>
       <c r="L18">
-        <v>11.8235847107524</v>
+        <v>7.287994962030012</v>
       </c>
       <c r="M18">
-        <v>16.49623596741739</v>
+        <v>11.46685217967543</v>
       </c>
       <c r="N18">
-        <v>22.28646775194724</v>
+        <v>13.96350238390395</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.29520182302323</v>
+        <v>15.7542672620026</v>
       </c>
       <c r="C19">
-        <v>6.028400180057303</v>
+        <v>7.41365638094813</v>
       </c>
       <c r="D19">
-        <v>7.456547188423595</v>
+        <v>4.855546424999178</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>40.93104773692451</v>
+        <v>28.5643112376371</v>
       </c>
       <c r="G19">
-        <v>48.26449481009882</v>
+        <v>36.17568331098499</v>
       </c>
       <c r="H19">
-        <v>19.16869415818084</v>
+        <v>12.0469973025459</v>
       </c>
       <c r="I19">
-        <v>30.22503289754266</v>
+        <v>19.47078764926599</v>
       </c>
       <c r="J19">
-        <v>10.47640743810381</v>
+        <v>6.058477679106103</v>
       </c>
       <c r="K19">
-        <v>12.55668444193464</v>
+        <v>12.87290630895457</v>
       </c>
       <c r="L19">
-        <v>11.82401575979054</v>
+        <v>7.280705608750039</v>
       </c>
       <c r="M19">
-        <v>16.49401901813651</v>
+        <v>11.44123671571315</v>
       </c>
       <c r="N19">
-        <v>22.29137763792313</v>
+        <v>13.98143602570057</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.3627776448874</v>
+        <v>16.03261178286344</v>
       </c>
       <c r="C20">
-        <v>6.072217437590494</v>
+        <v>7.523556068673718</v>
       </c>
       <c r="D20">
-        <v>7.460370762396876</v>
+        <v>4.900939050729832</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>40.9181384629323</v>
+        <v>28.69370699171332</v>
       </c>
       <c r="G20">
-        <v>48.25751671842257</v>
+        <v>36.38842604928716</v>
       </c>
       <c r="H20">
-        <v>19.15503322447821</v>
+        <v>12.04902376169042</v>
       </c>
       <c r="I20">
-        <v>30.20142350912692</v>
+        <v>19.47085651309941</v>
       </c>
       <c r="J20">
-        <v>10.47090433790229</v>
+        <v>6.043748649651334</v>
       </c>
       <c r="K20">
-        <v>12.60564416077288</v>
+        <v>13.12115013300144</v>
       </c>
       <c r="L20">
-        <v>11.82216547213796</v>
+        <v>7.313654380738417</v>
       </c>
       <c r="M20">
-        <v>16.50414409853854</v>
+        <v>11.55639622601723</v>
       </c>
       <c r="N20">
-        <v>22.26940210674485</v>
+        <v>13.90089873521323</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.59090401980434</v>
+        <v>16.94177405353681</v>
       </c>
       <c r="C21">
-        <v>6.216113014495327</v>
+        <v>7.883337744438172</v>
       </c>
       <c r="D21">
-        <v>7.474127373454134</v>
+        <v>5.052246771923842</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.88365932062227</v>
+        <v>29.15224336137387</v>
       </c>
       <c r="G21">
-        <v>48.24666504549847</v>
+        <v>37.137441414833</v>
       </c>
       <c r="H21">
-        <v>19.11227591483338</v>
+        <v>12.06542685838257</v>
       </c>
       <c r="I21">
-        <v>30.12753807678924</v>
+        <v>19.48852023543858</v>
       </c>
       <c r="J21">
-        <v>10.45305710013005</v>
+        <v>5.995314702874584</v>
       </c>
       <c r="K21">
-        <v>12.77136217487324</v>
+        <v>13.92677510103996</v>
       </c>
       <c r="L21">
-        <v>11.81751115305079</v>
+        <v>7.426876633244782</v>
       </c>
       <c r="M21">
-        <v>16.54074369117964</v>
+        <v>11.94105514584523</v>
       </c>
       <c r="N21">
-        <v>22.19765394365903</v>
+        <v>13.63310864760218</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.74057261900824</v>
+        <v>17.55055724292096</v>
       </c>
       <c r="C22">
-        <v>6.307604889364218</v>
+        <v>8.111417054372797</v>
       </c>
       <c r="D22">
-        <v>7.483787554218423</v>
+        <v>5.150105488730338</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>40.86775180217187</v>
+        <v>29.4699322606676</v>
       </c>
       <c r="G22">
-        <v>48.24895614027337</v>
+        <v>37.65276899113389</v>
       </c>
       <c r="H22">
-        <v>19.0866728573091</v>
+        <v>12.08361052997123</v>
       </c>
       <c r="I22">
-        <v>30.08330567198161</v>
+        <v>19.51366537490781</v>
       </c>
       <c r="J22">
-        <v>10.44186990940232</v>
+        <v>5.964432359656791</v>
       </c>
       <c r="K22">
-        <v>12.88041863196817</v>
+        <v>14.43233844812624</v>
       </c>
       <c r="L22">
-        <v>11.8156293328178</v>
+        <v>7.502710542702458</v>
       </c>
       <c r="M22">
-        <v>16.56656310926908</v>
+        <v>12.19044423324519</v>
       </c>
       <c r="N22">
-        <v>22.15231191318492</v>
+        <v>13.46005516766387</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.66065379844078</v>
+        <v>17.216634156801</v>
       </c>
       <c r="C23">
-        <v>6.25901207488555</v>
+        <v>7.990332012815846</v>
       </c>
       <c r="D23">
-        <v>7.478571053185538</v>
+        <v>5.09797864517905</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>40.87563584052995</v>
+        <v>29.29871039797413</v>
       </c>
       <c r="G23">
-        <v>48.24687512801881</v>
+        <v>37.37535027493286</v>
       </c>
       <c r="H23">
-        <v>19.10012347307593</v>
+        <v>12.07320235302645</v>
       </c>
       <c r="I23">
-        <v>30.10654207398271</v>
+        <v>19.49896095238454</v>
       </c>
       <c r="J23">
-        <v>10.44779719200017</v>
+        <v>5.980845066681538</v>
       </c>
       <c r="K23">
-        <v>12.82215470722855</v>
+        <v>14.16441183012667</v>
       </c>
       <c r="L23">
-        <v>11.81652784389007</v>
+        <v>7.462071091892733</v>
       </c>
       <c r="M23">
-        <v>16.55261058010774</v>
+        <v>12.05754373289989</v>
       </c>
       <c r="N23">
-        <v>22.17637038513248</v>
+        <v>13.55224580501849</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.35906204617795</v>
+        <v>16.01742379958328</v>
       </c>
       <c r="C24">
-        <v>6.069823512163437</v>
+        <v>7.51755646728666</v>
       </c>
       <c r="D24">
-        <v>7.46015734504453</v>
+        <v>4.898450486190755</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>40.91881391499671</v>
+        <v>28.68651246470469</v>
       </c>
       <c r="G24">
-        <v>48.25785254279437</v>
+        <v>36.37661525445164</v>
       </c>
       <c r="H24">
-        <v>19.15577159887355</v>
+        <v>12.0488771691935</v>
       </c>
       <c r="I24">
-        <v>30.202699568922</v>
+        <v>19.47078868199103</v>
       </c>
       <c r="J24">
-        <v>10.47120412044733</v>
+        <v>6.044553500891766</v>
       </c>
       <c r="K24">
-        <v>12.60295053092947</v>
+        <v>13.10762534936205</v>
       </c>
       <c r="L24">
-        <v>11.82226119237695</v>
+        <v>7.31183541095175</v>
       </c>
       <c r="M24">
-        <v>16.50357830947894</v>
+        <v>11.55007985024217</v>
       </c>
       <c r="N24">
-        <v>22.27060103355327</v>
+        <v>13.90531059192256</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.03771393662499</v>
+        <v>14.64673986409966</v>
       </c>
       <c r="C25">
-        <v>5.855292681511812</v>
+        <v>6.977382941572623</v>
       </c>
       <c r="D25">
-        <v>7.443224925723217</v>
+        <v>4.679691226442465</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.9938484350244</v>
+        <v>28.10158291048373</v>
       </c>
       <c r="G25">
-        <v>48.30998544719665</v>
+        <v>35.40809693737083</v>
       </c>
       <c r="H25">
-        <v>19.22584981914112</v>
+        <v>12.05267452785778</v>
       </c>
       <c r="I25">
-        <v>30.32381929840816</v>
+        <v>19.494883964754</v>
       </c>
       <c r="J25">
-        <v>10.49851202268439</v>
+        <v>6.116672858188018</v>
       </c>
       <c r="K25">
-        <v>12.37075505089441</v>
+        <v>11.87621366512287</v>
       </c>
       <c r="L25">
-        <v>11.83345404899817</v>
+        <v>7.157930677680543</v>
       </c>
       <c r="M25">
-        <v>16.45899583788475</v>
+        <v>10.99626211908239</v>
       </c>
       <c r="N25">
-        <v>22.37893378638985</v>
+        <v>14.295388225329</v>
       </c>
       <c r="O25">
         <v>0</v>
